--- a/03.詳細設計/URL一覧.xlsx
+++ b/03.詳細設計/URL一覧.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/_実践課題仕様書セット/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/_実践課題仕様書セット/document-sample/03.詳細設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C88357-FF30-814F-9931-2CDDA319D948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA8F27F-D490-464A-B53F-B51B87D7913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
   <sheets>
-    <sheet name="サンプル" sheetId="1" r:id="rId1"/>
+    <sheet name="PHPサンプル" sheetId="1" r:id="rId1"/>
+    <sheet name="Laravelサンプル" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -381,6 +382,231 @@
   </si>
   <si>
     <t>URL(/はindex.php)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントローラ名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクションメソッド名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View名</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Auth/LoginController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Laravelの機能を使用する</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">キノウヲ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">カイイントウロク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Auth/RegisterController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tasks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.blade.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク詳細</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tasks/{id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show.blade.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク修正</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タスクシュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/tasks/{id}/edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit.blade.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク修正フォーム表示</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タスクシュウセイ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク一覧表示</t>
+    <rPh sb="3" eb="7">
+      <t xml:space="preserve">イチランヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクの詳細を表示</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PATCH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク更新処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/task/crate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create.blade.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク新規登録フォーム表示</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/task/store</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク新規登録処理</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">タスクシンキトウロクショリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/task/{id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>destroy()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク削除処理</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -419,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -442,13 +668,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -466,6 +729,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,7 +1060,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -1004,4 +1279,353 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE410A23-8E44-1C49-9AC2-67B421A8557F}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="11.5703125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.85546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/03.詳細設計/URL一覧.xlsx
+++ b/03.詳細設計/URL一覧.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/_実践課題仕様書セット/document-sample/03.詳細設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA8F27F-D490-464A-B53F-B51B87D7913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD605F9-2E2C-0A46-9B5B-8C01258F329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
   <sheets>
     <sheet name="PHPサンプル" sheetId="1" r:id="rId1"/>
     <sheet name="Laravelサンプル" sheetId="2" r:id="rId2"/>
+    <sheet name="Servletサンプル" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="134">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -607,6 +608,222 @@
   </si>
   <si>
     <t>タスク削除処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/Login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doGet()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォワード先</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リダイレクト先</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doPost()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/Main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet</t>
+  </si>
+  <si>
+    <t>ログインフォームを表示する。</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヒョウジスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト処理を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/Logout</t>
+  </si>
+  <si>
+    <t>MainServlet</t>
+  </si>
+  <si>
+    <t>main.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/TodoRegister</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TodoRegisterServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>todoRegister.jsp</t>
+  </si>
+  <si>
+    <t>一覧表示を行う。</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">イチランヒョウジ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録処理を行う。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シンキトウロクショリ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODO新規登録</t>
+    <rPh sb="4" eb="8">
+      <t xml:space="preserve">シンキトウロク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODO更新</t>
+    <rPh sb="0" eb="4">
+      <t>TODO</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/TodoUpdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TodoUpdateServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>todoUpdate.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新処理を行う。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">コウシンショリヲ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/UserRegister</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserRegisterServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userRegister.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録処理を行う。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ユーザートウロクショリヲオコナウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報更新</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ユーザージョウホウコウシン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/UserUpdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserUpdateServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userUpdate.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報更新処理を行う。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ユーザージョウホウコウシンショリ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新フォームを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウシンフォームヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録フォームを表示する。</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">シンキトウロクフォームヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録フォームを表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報更新フォームを表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーブレット名</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -711,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,6 +949,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1058,7 +1278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5737E99-7D71-9749-B142-46F9DFBA2B95}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1104,7 +1324,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1118,7 +1338,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1128,7 +1348,7 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1138,7 +1358,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1148,7 +1368,7 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
@@ -1158,7 +1378,7 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
@@ -1168,7 +1388,7 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1178,7 +1398,7 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1188,7 +1408,7 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1198,7 +1418,7 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1208,7 +1428,7 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1220,7 +1440,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
@@ -1230,7 +1450,7 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1242,7 +1462,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1252,7 +1472,7 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1262,7 +1482,7 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1391,7 +1611,7 @@
       <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1415,7 +1635,7 @@
       <c r="B5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
         <v>58</v>
       </c>
@@ -1437,7 +1657,7 @@
       <c r="B6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
         <v>58</v>
       </c>
@@ -1459,7 +1679,7 @@
       <c r="B7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
         <v>73</v>
       </c>
@@ -1481,7 +1701,7 @@
       <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
         <v>58</v>
       </c>
@@ -1503,7 +1723,7 @@
       <c r="B9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
         <v>83</v>
       </c>
@@ -1525,7 +1745,7 @@
       <c r="B10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2" t="s">
         <v>88</v>
       </c>
@@ -1628,4 +1848,399 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2954F904-0EED-5F41-94F7-8DB53EF68516}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="3" customWidth="1"/>
+    <col min="9" max="14" width="11.5703125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.85546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/03.詳細設計/URL一覧.xlsx
+++ b/03.詳細設計/URL一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/_実践課題仕様書セット/document-sample/03.詳細設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okamoto serina\Katachi Dropbox\miraino katachi\katachi【講師】\利用者さん課題\_実践課題仕様書セット\document-sample\03.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD605F9-2E2C-0A46-9B5B-8C01258F329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62FCDFB-E5C1-4AD2-9104-7799AEA9EE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
   <sheets>
     <sheet name="PHPサンプル" sheetId="1" r:id="rId1"/>
@@ -338,38 +338,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/member/resistration/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/resistration/confirm.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/resistration/process.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/edit/acount/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/edit/acount/confirm.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/edit/acount/process.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/edit/pasword/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/member/edit/pasword/confirm.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/member/edit/password/process.php</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -824,6 +792,31 @@
   </si>
   <si>
     <t>サーブレット名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/member/edit/account/</t>
+  </si>
+  <si>
+    <t>/member/edit/account/confirm.php</t>
+  </si>
+  <si>
+    <t>/member/edit/account/process.php</t>
+  </si>
+  <si>
+    <t>/member/edit/password/</t>
+  </si>
+  <si>
+    <t>/member/edit/password/confirm.php</t>
+  </si>
+  <si>
+    <t>/member/registration/confirm.php</t>
+  </si>
+  <si>
+    <t>/member/registration/process.php</t>
+  </si>
+  <si>
+    <t>/member/registration/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -831,7 +824,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -928,38 +921,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1276,29 +1260,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5737E99-7D71-9749-B142-46F9DFBA2B95}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11.5703125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="10.85546875" style="3"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1307,7 +1290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1320,11 +1303,9 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1337,8 +1318,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1347,8 +1328,8 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1357,68 +1338,68 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1427,10 +1408,10 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -1439,18 +1420,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1461,30 +1442,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
@@ -1503,45 +1484,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE410A23-8E44-1C49-9AC2-67B421A8557F}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="11.5703125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="10.85546875" style="3"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1550,218 +1530,216 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="6" t="s">
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1770,8 +1748,8 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1780,8 +1758,8 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1790,8 +1768,8 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1800,8 +1778,8 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1810,8 +1788,8 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1820,8 +1798,8 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1830,8 +1808,8 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1852,45 +1830,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2954F904-0EED-5F41-94F7-8DB53EF68516}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="3" customWidth="1"/>
-    <col min="9" max="14" width="11.5703125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="10.85546875" style="3"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" customWidth="1"/>
+    <col min="9" max="14" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1899,270 +1876,266 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="G3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="C8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
+      <c r="B10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="8" t="s">
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A12" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2171,8 +2144,8 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2181,8 +2154,8 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2191,8 +2164,8 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2201,8 +2174,8 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2211,8 +2184,8 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2223,21 +2196,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
